--- a/manuscript/table_fomatting.xlsx
+++ b/manuscript/table_fomatting.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Christine\Arbeit\06_Forschungsprojekte\2025_Simultaneous_Adaptation\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AB529B-35C4-4432-853D-8B62CC1CE579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246B2BC0-6CF4-4896-8159-42A483F4B7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Exp1_Other_assigned" sheetId="1" r:id="rId1"/>
+    <sheet name="Exp1" sheetId="1" r:id="rId1"/>
+    <sheet name="Exp2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
   <si>
     <t>Chi2</t>
   </si>
@@ -80,9 +81,6 @@
     <t>N participants</t>
   </si>
   <si>
-    <t>N continua</t>
-  </si>
-  <si>
     <t>Predictor</t>
   </si>
   <si>
@@ -95,55 +93,109 @@
     <t xml:space="preserve">Response ~ </t>
   </si>
   <si>
-    <t>tML * SpSex * AdaptType + (1 | SpID) + (1 | Participant)</t>
-  </si>
-  <si>
     <t>Morph Level (tML)</t>
   </si>
   <si>
     <t>Speaker Sex (SpSex)</t>
   </si>
   <si>
-    <t>AdaptType</t>
-  </si>
-  <si>
     <t>tML x SpSex</t>
   </si>
   <si>
-    <t>tML x AdaptType</t>
-  </si>
-  <si>
-    <t>SpSex x AdaptType</t>
-  </si>
-  <si>
-    <t>tML x SpSex x AdaptType</t>
-  </si>
-  <si>
     <t>tML</t>
   </si>
   <si>
     <t>SpSex: male</t>
   </si>
   <si>
-    <t>AdaptType: 1*</t>
-  </si>
-  <si>
     <t>tML x SpSex: male</t>
   </si>
   <si>
-    <t>tML x AdaptType: 1</t>
-  </si>
-  <si>
-    <t>SpSex: male x AdaptType: 1</t>
-  </si>
-  <si>
-    <t>tML x SpSex: male x AdaptType: 1</t>
-  </si>
-  <si>
     <t>Speaker Identity (SpID) -  Intercept</t>
   </si>
   <si>
     <t>Model Exp 1</t>
+  </si>
+  <si>
+    <t>Model Exp 2 - Female Voices</t>
+  </si>
+  <si>
+    <t>tML * SpID * AdaptCond + (1 | Participant)</t>
+  </si>
+  <si>
+    <t>Speaker Identity (SpID)</t>
+  </si>
+  <si>
+    <t>AdaptCond</t>
+  </si>
+  <si>
+    <t>tML x SpID</t>
+  </si>
+  <si>
+    <t>tML x AdaptCond</t>
+  </si>
+  <si>
+    <t>SpID x AdaptCond</t>
+  </si>
+  <si>
+    <t>tML x SpID x AdaptCond</t>
+  </si>
+  <si>
+    <t>SpID: F2</t>
+  </si>
+  <si>
+    <t>tML x SpID: F2</t>
+  </si>
+  <si>
+    <t>AdaptCond: 2*</t>
+  </si>
+  <si>
+    <t>tML x AdaptCond: 2</t>
+  </si>
+  <si>
+    <t>SpSex: male x AdaptCond: 2</t>
+  </si>
+  <si>
+    <t>tML x SpSex: male x AdaptCond: 2</t>
+  </si>
+  <si>
+    <t>SpSex x AdaptCond</t>
+  </si>
+  <si>
+    <t>tML x SpSex x AdaptCond</t>
+  </si>
+  <si>
+    <t>tML * SpSex * AdaptCond + (1 | SpID) + (1 | Participant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N Speaker Identity </t>
+  </si>
+  <si>
+    <t>Model Exp 2 - Male Voices</t>
+  </si>
+  <si>
+    <t>SpID: M4</t>
+  </si>
+  <si>
+    <t>tML x SpID: M4</t>
+  </si>
+  <si>
+    <t>SpID: F2 x AdaptCond: 2</t>
+  </si>
+  <si>
+    <t>tML x SpID: F2 x AdaptCond: 2</t>
+  </si>
+  <si>
+    <t>AdaptCond: 4*</t>
+  </si>
+  <si>
+    <t>tML x AdaptCond: 4</t>
+  </si>
+  <si>
+    <t>SpID: M4 x AdaptCond: 4</t>
+  </si>
+  <si>
+    <t>tML x SpID: M4 x AdaptCond: 4</t>
   </si>
 </sst>
 </file>
@@ -153,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +258,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -269,20 +341,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -340,6 +403,29 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -622,15 +708,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="25" customWidth="1"/>
     <col min="4" max="4" width="1.28515625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
@@ -641,367 +727,367 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="7">
+        <v>4130.01</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="14">
+        <v>-0.79080799999999996</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.40581699999999998</v>
+      </c>
+      <c r="H5" s="14">
+        <v>-1.9490000000000001</v>
+      </c>
+      <c r="I5" s="15">
+        <v>5.1330000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B6" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1.8149580000000001</v>
+      </c>
+      <c r="G6" s="15">
+        <v>7.4219999999999994E-2</v>
+      </c>
+      <c r="H6" s="14">
+        <v>24.454000000000001</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.67863600000000002</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.55459999999999998</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1.224</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.22108</v>
+      </c>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7">
+        <v>9.02</v>
+      </c>
+      <c r="C8" s="21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.61544399999999999</v>
+      </c>
+      <c r="G8" s="15">
+        <v>8.3845000000000003E-2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>7.34</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1.72</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.32332899999999998</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.109079</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2.964</v>
+      </c>
+      <c r="I9" s="17">
+        <v>3.0300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="7">
+        <v>93.59</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="14">
+        <v>-3.5239999999999998E-3</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.101538</v>
+      </c>
+      <c r="H10" s="14">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0.97231000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1.59</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="14">
+        <v>-1.156331</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.120616</v>
+      </c>
+      <c r="H11" s="14">
+        <v>-9.5869999999999997</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="14">
+        <v>-0.18723300000000001</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.14829700000000001</v>
+      </c>
+      <c r="H12" s="14">
+        <v>-1.2629999999999999</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.20674999999999999</v>
+      </c>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="F13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6">
+        <v>7433</v>
+      </c>
+      <c r="C14" s="22">
+        <v>7504</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11">
+        <v>8703</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.30070000000000002</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.54830000000000001</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6">
+        <v>39</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="12">
         <v>4</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="10">
-        <v>4130.01</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="17">
-        <v>-0.79080799999999996</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0.40581699999999998</v>
-      </c>
-      <c r="H5" s="17">
-        <v>-1.9490000000000001</v>
-      </c>
-      <c r="I5" s="18">
-        <v>5.1330000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="17">
-        <v>1.8149580000000001</v>
-      </c>
-      <c r="G6" s="18">
-        <v>7.4219999999999994E-2</v>
-      </c>
-      <c r="H6" s="17">
-        <v>24.454000000000001</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.38</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0.67863600000000002</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0.55459999999999998</v>
-      </c>
-      <c r="H7" s="17">
-        <v>1.224</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0.22108</v>
-      </c>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="10">
-        <v>9.02</v>
-      </c>
-      <c r="C8" s="24">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0.61544399999999999</v>
-      </c>
-      <c r="G8" s="18">
-        <v>8.3845000000000003E-2</v>
-      </c>
-      <c r="H8" s="17">
-        <v>7.34</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1.72</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0.19</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0.32332899999999998</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0.109079</v>
-      </c>
-      <c r="H9" s="17">
-        <v>2.964</v>
-      </c>
-      <c r="I9" s="20">
-        <v>3.0300000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="10">
-        <v>93.59</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-3.5239999999999998E-3</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0.101538</v>
-      </c>
-      <c r="H10" s="17">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="I10" s="18">
-        <v>0.97231000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1.59</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="17">
-        <v>-1.156331</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0.120616</v>
-      </c>
-      <c r="H11" s="17">
-        <v>-9.5869999999999997</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="17">
-        <v>-0.18723300000000001</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0.14829700000000001</v>
-      </c>
-      <c r="H12" s="17">
-        <v>-1.2629999999999999</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0.20674999999999999</v>
-      </c>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="9">
-        <v>7433</v>
-      </c>
-      <c r="C14" s="25">
-        <v>7504</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0.42080000000000001</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0.64870000000000005</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="14">
-        <v>8703</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0.30070000000000002</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0.54830000000000001</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="9">
-        <v>39</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="15">
-        <v>4</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="15"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1011,4 +1097,764 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D741DE-D247-4C24-A11A-47402E21E4AD}">
+  <dimension ref="A2:S31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="1.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="28">
+        <v>1778.33</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="27">
+        <v>-0.18645900000000001</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0.12334100000000001</v>
+      </c>
+      <c r="H5" s="27">
+        <v>-1.512</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="28">
+        <v>42.09</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="27">
+        <v>1.7216549999999999</v>
+      </c>
+      <c r="G6" s="27">
+        <v>9.4289999999999999E-2</v>
+      </c>
+      <c r="H6" s="27">
+        <v>18.259</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="28">
+        <v>6.94</v>
+      </c>
+      <c r="C7" s="21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="27">
+        <v>-0.30108099999999999</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0.104462</v>
+      </c>
+      <c r="H7" s="27">
+        <v>-2.8820000000000001</v>
+      </c>
+      <c r="I7" s="17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="28">
+        <v>31.69</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="27">
+        <v>-6.5250000000000004E-3</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0.110554</v>
+      </c>
+      <c r="H8" s="27">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="28">
+        <v>5.82</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="27">
+        <v>-0.45649400000000001</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0.12246600000000001</v>
+      </c>
+      <c r="H9" s="27">
+        <v>-3.7280000000000002</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="28">
+        <v>6.49</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0.27460299999999999</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0.139819</v>
+      </c>
+      <c r="H10" s="27">
+        <v>1.964</v>
+      </c>
+      <c r="I10" s="17">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="27">
+        <v>0.35</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="27">
+        <v>-0.39059199999999999</v>
+      </c>
+      <c r="G11" s="27">
+        <v>0.153449</v>
+      </c>
+      <c r="H11" s="27">
+        <v>-2.5449999999999999</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="27">
+        <v>-0.108917</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0.183084</v>
+      </c>
+      <c r="H12" s="27">
+        <v>-0.59499999999999997</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4503.1000000000004</v>
+      </c>
+      <c r="C14" s="32">
+        <v>4561.2</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.629</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11">
+        <v>4704</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12">
+        <v>42</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="27">
+        <v>1846.07</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="27">
+        <v>-1.37954</v>
+      </c>
+      <c r="G20" s="27">
+        <v>0.15271999999999999</v>
+      </c>
+      <c r="H20" s="27">
+        <v>-9.0329999999999995</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="27">
+        <v>433.77</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="27">
+        <v>1.49458</v>
+      </c>
+      <c r="G21" s="27">
+        <v>9.6570000000000003E-2</v>
+      </c>
+      <c r="H21" s="27">
+        <v>15.477</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="27">
+        <v>36.31</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="27">
+        <v>1.8655999999999999</v>
+      </c>
+      <c r="G22" s="27">
+        <v>0.12761</v>
+      </c>
+      <c r="H22" s="27">
+        <v>14.62</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="27">
+        <v>54.6</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="27">
+        <v>-0.46879999999999999</v>
+      </c>
+      <c r="G23" s="27">
+        <v>0.13547999999999999</v>
+      </c>
+      <c r="H23" s="27">
+        <v>-3.46</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="27">
+        <v>2.88</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="27">
+        <v>0.89302999999999999</v>
+      </c>
+      <c r="G24" s="27">
+        <v>0.15518000000000001</v>
+      </c>
+      <c r="H24" s="27">
+        <v>5.7549999999999999</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="27">
+        <v>0.66</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="27">
+        <v>-7.8939999999999996E-2</v>
+      </c>
+      <c r="G25" s="27">
+        <v>0.14018</v>
+      </c>
+      <c r="H25" s="27">
+        <v>-0.56299999999999994</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="27">
+        <v>0.93</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="27">
+        <v>-0.14815</v>
+      </c>
+      <c r="G26" s="27">
+        <v>0.18148</v>
+      </c>
+      <c r="H26" s="27">
+        <v>-0.81599999999999995</v>
+      </c>
+      <c r="I26" s="30">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="27">
+        <v>-0.20594000000000001</v>
+      </c>
+      <c r="G27" s="27">
+        <v>0.21435000000000001</v>
+      </c>
+      <c r="H27" s="27">
+        <v>-0.96099999999999997</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="11">
+        <v>3855.1</v>
+      </c>
+      <c r="C29" s="32">
+        <v>3913.2</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0.79590000000000005</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="11">
+        <v>4704</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="12">
+        <v>42</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="B18:I18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>